--- a/examples/genomics/schema_and_data.xlsx
+++ b/examples/genomics/schema_and_data.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -263,18 +263,27 @@
     <t>String(primary=True, unique=True)</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
     <t>ManyToOne('Location', related_name='genes')</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>symbol</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>Symbol</t>
+  </si>
+  <si>
     <t>Transcript</t>
   </si>
   <si>
@@ -287,9 +296,6 @@
     <t>ManyToOne('Location', related_name='transcripts')</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>multiple_cells</t>
   </si>
   <si>
@@ -299,13 +305,22 @@
     <t>chromosome</t>
   </si>
   <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
     <t>five_prime</t>
   </si>
   <si>
     <t>PositiveInteger</t>
   </si>
   <si>
+    <t>5'</t>
+  </si>
+  <si>
     <t>three_prime</t>
+  </si>
+  <si>
+    <t>3'</t>
   </si>
   <si>
     <t>!!ObjTables type='Data' tableFormat='row' class='Gene' name='Genes' date='2020-05-14 17:04:33' objTablesVersion='1.0.0'</t>
@@ -911,13 +926,15 @@
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -926,15 +943,17 @@
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -943,15 +962,17 @@
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -961,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -970,18 +991,20 @@
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -993,99 +1016,109 @@
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
@@ -1117,7 +1150,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1128,41 +1161,41 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4">
         <v>44905791</v>
@@ -1173,13 +1206,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4">
         <v>32315086</v>
@@ -1233,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1244,41 +1277,41 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4">
         <v>44905796</v>
@@ -1289,13 +1322,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4">
         <v>32315474</v>
@@ -1306,13 +1339,13 @@
     </row>
     <row r="6" spans="1:5" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4">
         <v>44906360</v>
@@ -1323,13 +1356,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4">
         <v>32315480</v>

--- a/examples/genomics/schema_and_data.xlsx
+++ b/examples/genomics/schema_and_data.xlsx
@@ -269,7 +269,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>ManyToOne('Location', related_name='genes')</t>
+    <t>OneToOne('Location', related_name='genes')</t>
   </si>
   <si>
     <t>Location</t>
@@ -293,7 +293,7 @@
     <t>ManyToOne('Gene', related_name='transcripts')</t>
   </si>
   <si>
-    <t>ManyToOne('Location', related_name='transcripts')</t>
+    <t>OneToOne('Location', related_name='transcripts')</t>
   </si>
   <si>
     <t>multiple_cells</t>

--- a/examples/genomics/schema_and_data.xlsx
+++ b/examples/genomics/schema_and_data.xlsx
@@ -22,169 +22,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select a value from "!!Genes:A" or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
@@ -197,10 +34,10 @@
     <t>'!!Transcripts'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-05-14 17:04:33'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-14 17:04:33' objTablesVersion='1.0.0'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-05-14 17:04:33'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-14 17:04:33' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -224,7 +61,7 @@
     <t>Transcripts</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-14 17:04:33' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-14 17:04:33' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -323,7 +160,7 @@
     <t>3'</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Gene' name='Genes' date='2020-05-14 17:04:33' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Gene' name='Genes' date='2020-05-14 17:04:33' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Location</t>
@@ -362,7 +199,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Transcript' name='Transcripts' date='2020-05-14 17:04:33' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Transcript' name='Transcripts' date='2020-05-14 17:04:33' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Gene</t>
@@ -384,19 +221,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -455,23 +286,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -782,54 +612,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
     </row>
@@ -861,266 +691,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
@@ -1149,75 +979,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>44905791</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>44909393</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>32315086</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>32400266</v>
       </c>
     </row>
@@ -1245,7 +1075,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1265,109 +1094,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>44905796</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>44909393</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>32315474</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>32400266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>44906360</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>44908954</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>32315480</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>32399668</v>
       </c>
     </row>
@@ -1395,6 +1224,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/genomics/schema_and_data.xlsx
+++ b/examples/genomics/schema_and_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22770" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -13,26 +13,17 @@
     <sheet name="!!Transcripts" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Genes'!$A$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Transcripts'!$A$3:$E$7</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
-  <si>
-    <t>'!!_Schema'!A1</t>
-  </si>
-  <si>
-    <t>'!!Genes'!A1</t>
-  </si>
-  <si>
-    <t>'!!Transcripts'!A1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-05-14 17:04:33'</t>
   </si>
@@ -58,7 +49,13 @@
     <t>Genes</t>
   </si>
   <si>
+    <t xml:space="preserve">Genes in the genome </t>
+  </si>
+  <si>
     <t>Transcripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice variants expressed from the genome </t>
   </si>
   <si>
     <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-14 17:04:33' objTablesVersion='1.0.1'</t>
@@ -221,29 +218,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,23 +405,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAAAAA"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,34 +616,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -592,637 +1223,666 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:C6"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
+  <autoFilter ref="A3:C6">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A4" location="'!!_Schema'!A1" tooltip="Click to view schema" display="'!!_Schema'!A1"/>
-    <hyperlink ref="A5" location="'!!Genes'!A1" tooltip="Click to view genes" display="'!!Genes'!A1"/>
-    <hyperlink ref="A6" location="'!!Transcripts'!A1" tooltip="Click to view transcripts" display="'!!Transcripts'!A1"/>
+    <hyperlink ref="A4" location="'!!_Schema'!A1" display="Schema" tooltip="Click to view schema"/>
+    <hyperlink ref="A5" location="'!!Genes'!A1" display="Genes" tooltip="Click to view genes"/>
+    <hyperlink ref="A6" location="'!!Transcripts'!A1" display="Transcripts" tooltip="Click to view transcripts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.01" customHeight="1">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="F11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G14"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
+  <autoFilter ref="A2:G14">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A3" location="'!!Genes'!A1" tooltip="Click to view genes" display="'!!Genes'!A1"/>
-    <hyperlink ref="A7" location="'!!Transcripts'!A1" tooltip="Click to view transcripts" display="'!!Transcripts'!A1"/>
+    <hyperlink ref="A3" location="'!!Genes'!A1" display="Gene" tooltip="Click to view genes"/>
+    <hyperlink ref="A7" location="'!!Transcripts'!A1" display="Transcript" tooltip="Click to view transcripts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.01" customHeight="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6">
+        <v>44905791</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44909393</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="3">
-        <v>44905791</v>
-      </c>
-      <c r="E4" s="3">
-        <v>44909393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>32315086</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>32400266</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:E5"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
+  <autoFilter ref="A3:E5">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A4:A5">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="3'" error="Value must be an integer." promptTitle="3'" prompt="Enter an integer.&#10;&#10;Value must be positive." sqref="E4:E5" errorStyle="warning">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="5'" error="Value must be an integer.&#10;&#10;Value must be unique." promptTitle="5'" prompt="Enter an integer.&#10;&#10;Value must be positive.&#10;&#10;Value must be unique." sqref="D4:D5" errorStyle="warning">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chromosome" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chromosome" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chromosome" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chromosome" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C5">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A4:A5" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="5'" error="Value must be an integer.&#10;&#10;Value must be unique." promptTitle="5'" prompt="Enter an integer.&#10;&#10;Value must be positive.&#10;&#10;Value must be unique." sqref="D4:D5">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="3'" error="Value must be an integer." promptTitle="3'" prompt="Enter an integer.&#10;&#10;Value must be positive." sqref="E4:E5">
-      <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.01" customHeight="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44905796</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44909393</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="3">
-        <v>44905796</v>
-      </c>
-      <c r="E4" s="3">
-        <v>44909393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6">
+        <v>32315474</v>
+      </c>
+      <c r="E5" s="6">
+        <v>32400266</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3">
-        <v>32315474</v>
-      </c>
-      <c r="E5" s="3">
-        <v>32400266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44906360</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44908954</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3">
-        <v>44906360</v>
-      </c>
-      <c r="E6" s="3">
-        <v>44908954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6">
         <v>32315480</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>32399668</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:E7"/>
+  <sheetProtection insertRows="0" deleteRows="0"/>
+  <autoFilter ref="A3:E7">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A4:A7">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chromosome" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chromosome" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C7" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Gene" error="Value must be a value from &quot;!!Genes:A&quot; or blank." promptTitle="Gene" prompt="Select a value from &quot;!!Genes:A&quot; or blank." sqref="B4:B7">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="3'" error="Value must be an integer." promptTitle="3'" prompt="Enter an integer.&#10;&#10;Value must be positive." sqref="E4:E7" errorStyle="warning">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="5'" error="Value must be an integer.&#10;&#10;Value must be unique." promptTitle="5'" prompt="Enter an integer.&#10;&#10;Value must be positive.&#10;&#10;Value must be unique." sqref="D4:D7" errorStyle="warning">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Gene" error="Value must be a value from &quot;!!Genes:A&quot; or blank." promptTitle="Gene" prompt="Select a value from &quot;!!Genes:A&quot; or blank." sqref="B4:B7" errorStyle="warning">
       <formula1>'!!Genes'!$A$4:$A$1048576</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chromosome" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chromosome" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C7">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A4:A7" errorStyle="warning">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="5'" error="Value must be an integer.&#10;&#10;Value must be unique." promptTitle="5'" prompt="Enter an integer.&#10;&#10;Value must be positive.&#10;&#10;Value must be unique." sqref="D4:D7">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="3'" error="Value must be an integer." promptTitle="3'" prompt="Enter an integer.&#10;&#10;Value must be positive." sqref="E4:E7">
-      <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/genomics/schema_and_data.xlsx
+++ b/examples/genomics/schema_and_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="10800"/>
+    <workbookView windowWidth="22770" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-05-14 17:04:33'</t>
   </si>
@@ -100,6 +100,15 @@
     <t>Id</t>
   </si>
   <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -109,15 +118,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
     <t>Transcript</t>
   </si>
   <si>
@@ -145,13 +145,16 @@
     <t>five_prime</t>
   </si>
   <si>
+    <t>PositiveInteger(primary=True, unique=True)</t>
+  </si>
+  <si>
+    <t>5'</t>
+  </si>
+  <si>
+    <t>three_prime</t>
+  </si>
+  <si>
     <t>PositiveInteger</t>
-  </si>
-  <si>
-    <t>5'</t>
-  </si>
-  <si>
-    <t>three_prime</t>
   </si>
   <si>
     <t>3'</t>
@@ -219,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -254,8 +257,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +289,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,24 +333,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,44 +372,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,29 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -423,13 +426,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,25 +510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,61 +540,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,73 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,17 +620,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,11 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,22 +678,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,142 +720,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,7 +1234,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -1319,7 +1322,7 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -1468,7 +1471,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
@@ -1477,17 +1480,17 @@
         <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
@@ -1496,17 +1499,17 @@
         <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
@@ -1518,14 +1521,14 @@
         <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
@@ -1535,7 +1538,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>36</v>
@@ -1550,10 +1553,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>38</v>
@@ -1569,7 +1572,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>40</v>
@@ -1588,13 +1591,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1632,7 +1635,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1643,41 +1646,41 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6">
         <v>44905791</v>
@@ -1688,13 +1691,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6">
         <v>32315086</v>
@@ -1752,7 +1755,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1763,41 +1766,41 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6">
         <v>44905796</v>
@@ -1808,13 +1811,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6">
         <v>32315474</v>
@@ -1825,13 +1828,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6">
         <v>44906360</v>
@@ -1842,13 +1845,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6">
         <v>32315480</v>
